--- a/Documents/Qs.xlsx
+++ b/Documents/Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MC" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>has usable ace</t>
   </si>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,15 +1934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1972,6 +1972,9 @@
       </c>
       <c r="J1">
         <v>0</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
       </c>
       <c r="O1">
         <v>38.052999999999997</v>
@@ -2003,8 +2006,11 @@
       <c r="X1">
         <v>43.996000000000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2034,6 +2040,9 @@
       </c>
       <c r="J2">
         <v>0</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
       </c>
       <c r="O2">
         <v>17.257000000000001</v>
@@ -2065,8 +2074,11 @@
       <c r="X2">
         <v>26.114999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2096,6 +2108,9 @@
       </c>
       <c r="J3">
         <v>0</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
       </c>
       <c r="O3">
         <v>7.274</v>
@@ -2127,8 +2142,11 @@
       <c r="X3">
         <v>6.9210000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2158,6 +2176,9 @@
       </c>
       <c r="J4">
         <v>1</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
       </c>
       <c r="O4">
         <v>-1.9319999999999999</v>
@@ -2189,8 +2210,11 @@
       <c r="X4">
         <v>-1.653</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2220,6 +2244,9 @@
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
       </c>
       <c r="O5">
         <v>-12.295999999999999</v>
@@ -2251,8 +2278,11 @@
       <c r="X5">
         <v>-11.903</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2282,6 +2312,9 @@
       </c>
       <c r="J6">
         <v>1</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
       </c>
       <c r="O6">
         <v>-19.547999999999998</v>
@@ -2313,8 +2346,11 @@
       <c r="X6">
         <v>-16.155000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2344,6 +2380,9 @@
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
       </c>
       <c r="O7">
         <v>-21.074000000000002</v>
@@ -2375,8 +2414,11 @@
       <c r="X7">
         <v>-17.923999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2406,6 +2448,9 @@
       </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
       </c>
       <c r="O8">
         <v>-24.234000000000002</v>
@@ -2437,8 +2482,11 @@
       <c r="X8">
         <v>-20.981000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2468,6 +2516,9 @@
       </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
       </c>
       <c r="O9">
         <v>-23.806999999999999</v>
@@ -2499,8 +2550,11 @@
       <c r="X9">
         <v>-20.718</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2530,6 +2584,9 @@
       </c>
       <c r="J10">
         <v>1</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
       </c>
       <c r="O10">
         <v>-26.425999999999998</v>
@@ -2561,8 +2618,73 @@
       <c r="X10">
         <v>-21.936</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2592,6 +2714,9 @@
       </c>
       <c r="J14">
         <v>0</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
       </c>
       <c r="O14">
         <v>81.593999999999994</v>
@@ -2623,8 +2748,11 @@
       <c r="X14">
         <v>95.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2654,6 +2782,9 @@
       </c>
       <c r="J15">
         <v>0</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
       </c>
       <c r="O15">
         <v>50.749000000000002</v>
@@ -2685,8 +2816,11 @@
       <c r="X15">
         <v>66.155000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2716,6 +2850,9 @@
       </c>
       <c r="J16">
         <v>0</v>
+      </c>
+      <c r="K16">
+        <v>19</v>
       </c>
       <c r="O16">
         <v>33.079000000000001</v>
@@ -2747,8 +2884,11 @@
       <c r="X16">
         <v>37.661999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2778,6 +2918,9 @@
       </c>
       <c r="J17">
         <v>0</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
       </c>
       <c r="O17">
         <v>19.431000000000001</v>
@@ -2809,8 +2952,11 @@
       <c r="X17">
         <v>22.209</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2840,6 +2986,9 @@
       </c>
       <c r="J18">
         <v>0</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
       </c>
       <c r="O18">
         <v>3.431</v>
@@ -2871,8 +3020,11 @@
       <c r="X18">
         <v>9.4589999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2902,6 +3054,9 @@
       </c>
       <c r="J19">
         <v>0</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
       </c>
       <c r="O19">
         <v>-5.1539999999999999</v>
@@ -2933,8 +3088,11 @@
       <c r="X19">
         <v>1.577</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2964,6 +3122,9 @@
       </c>
       <c r="J20">
         <v>1</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
       </c>
       <c r="O20">
         <v>-6.5490000000000004</v>
@@ -2995,8 +3156,11 @@
       <c r="X20">
         <v>-1.248</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3026,6 +3190,9 @@
       </c>
       <c r="J21">
         <v>1</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
       </c>
       <c r="O21">
         <v>-9.8680000000000003</v>
@@ -3057,8 +3224,11 @@
       <c r="X21">
         <v>-2.4049999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3088,6 +3258,9 @@
       </c>
       <c r="J22">
         <v>1</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
       </c>
       <c r="O22">
         <v>-11.634</v>
@@ -3119,8 +3292,11 @@
       <c r="X22">
         <v>-6.4939999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3150,6 +3326,9 @@
       </c>
       <c r="J23">
         <v>1</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
       </c>
       <c r="O23">
         <v>-12.510999999999999</v>
@@ -3180,6 +3359,71 @@
       </c>
       <c r="X23">
         <v>-6.3330000000000002</v>
+      </c>
+      <c r="Y23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="W24">
+        <v>9</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
